--- a/Fase3_1_Nuria.xlsx
+++ b/Fase3_1_Nuria.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
   <si>
     <t xml:space="preserve">NOMBRE COLUMNA</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">DTYPE</t>
   </si>
   <si>
+    <t xml:space="preserve">VALUES</t>
+  </si>
+  <si>
     <t xml:space="preserve">TABLA</t>
   </si>
   <si>
@@ -40,30 +43,70 @@
     <t xml:space="preserve">ATTRIBUTES</t>
   </si>
   <si>
+    <t xml:space="preserve">???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOT NULL, UNIQUE, AUTO_INCREMENT</t>
+  </si>
+  <si>
     <t xml:space="preserve">Age</t>
   </si>
   <si>
     <t xml:space="preserve">Attrition</t>
   </si>
   <si>
+    <t xml:space="preserve">boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[True, False]</t>
+  </si>
+  <si>
     <t xml:space="preserve">BusinessTravel</t>
   </si>
   <si>
+    <t xml:space="preserve">object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[nan, 'travel_rarely', 'travel_frequently', 'non-travel']</t>
+  </si>
+  <si>
     <t xml:space="preserve">DailyRate</t>
   </si>
   <si>
+    <t xml:space="preserve">float</t>
+  </si>
+  <si>
     <t xml:space="preserve">Department</t>
   </si>
   <si>
+    <t xml:space="preserve">[nan, ' Research &amp; Development ', ' Sales ', ' Human Resources ']</t>
+  </si>
+  <si>
     <t xml:space="preserve">DistanceFromHome</t>
   </si>
   <si>
+    <t xml:space="preserve">int64</t>
+  </si>
+  <si>
     <t xml:space="preserve">Education</t>
   </si>
   <si>
+    <t xml:space="preserve">[1, 2, 3, 4, 5]</t>
+  </si>
+  <si>
     <t xml:space="preserve">EducationField</t>
   </si>
   <si>
+    <t xml:space="preserve">[nan, 'Life Sciences', 'Technical Degree', 'Medical', 'Other',
+       'Marketing', 'Human Resources']</t>
+  </si>
+  <si>
     <t xml:space="preserve">employeecount</t>
   </si>
   <si>
@@ -73,9 +116,15 @@
     <t xml:space="preserve">EnvironmentSatisfaction</t>
   </si>
   <si>
+    <t xml:space="preserve">[1, 2, 3, 4]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gender</t>
   </si>
   <si>
+    <t xml:space="preserve">['H','M']</t>
+  </si>
+  <si>
     <t xml:space="preserve">HourlyRate</t>
   </si>
   <si>
@@ -92,6 +141,9 @@
   </si>
   <si>
     <t xml:space="preserve">MaritalStatus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">['Married', 'Divorced', 'Single']</t>
   </si>
   <si>
     <t xml:space="preserve">MonthlyIncome</t>
@@ -198,12 +250,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF993300"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -240,13 +304,45 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -266,241 +362,355 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:G43"/>
+  <dimension ref="B1:H43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="53.15"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="5" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="40.88"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>6</v>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>7</v>
+      <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+      <c r="F12" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+      <c r="H12" s="0" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
-        <v>17</v>
+      <c r="D14" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
-        <v>18</v>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
-        <v>19</v>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
-        <v>20</v>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
-        <v>21</v>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
-        <v>22</v>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
-        <v>23</v>
+      <c r="B20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
-        <v>24</v>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
-        <v>25</v>
+      <c r="B22" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>26</v>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
-        <v>27</v>
+      <c r="B24" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
-        <v>28</v>
+      <c r="B25" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
-        <v>29</v>
+      <c r="B26" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
-        <v>30</v>
+      <c r="B27" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
-        <v>31</v>
+      <c r="B28" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
-        <v>32</v>
+      <c r="B29" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
-        <v>33</v>
+      <c r="B30" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
-        <v>34</v>
+      <c r="B31" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
-        <v>35</v>
+      <c r="B32" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
-        <v>36</v>
+      <c r="B33" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
-        <v>37</v>
+      <c r="B34" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
-        <v>38</v>
+      <c r="B35" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
-        <v>39</v>
+      <c r="B36" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
-        <v>40</v>
+      <c r="B37" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
-        <v>41</v>
+      <c r="B38" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
-        <v>42</v>
+      <c r="B39" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
-        <v>43</v>
+      <c r="B40" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
-        <v>44</v>
+      <c r="B41" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
-        <v>45</v>
+      <c r="B42" s="1" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
-        <v>46</v>
+      <c r="B43" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Fase3_1_Nuria.xlsx
+++ b/Fase3_1_Nuria.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t xml:space="preserve">NOMBRE COLUMNA</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">ATTRIBUTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATOS A LIMPIAR</t>
   </si>
   <si>
     <t xml:space="preserve">???</t>
@@ -204,6 +207,9 @@
   </si>
   <si>
     <t xml:space="preserve">Salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELIMINAR</t>
   </si>
   <si>
     <t xml:space="preserve">RoleDepartament</t>
@@ -227,6 +233,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -248,6 +255,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -304,7 +312,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -317,10 +325,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -343,6 +347,22 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -362,355 +382,369 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:H43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="53.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="53.15"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="5" style="2" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="40.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="44.01"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="7" t="s">
         <v>17</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="8" t="s">
         <v>19</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>25</v>
+      <c r="D9" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>27</v>
+        <v>17</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="8" t="s">
         <v>33</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>8</v>
+        <v>35</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="1" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="40" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/Fase3_1_Nuria.xlsx
+++ b/Fase3_1_Nuria.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="122">
+  <si>
+    <t xml:space="preserve">NOMBRE COLUMNA ORIGINAL</t>
+  </si>
   <si>
     <t xml:space="preserve">NOMBRE COLUMNA</t>
   </si>
@@ -46,7 +49,7 @@
     <t xml:space="preserve">DATOS A LIMPIAR</t>
   </si>
   <si>
-    <t xml:space="preserve">???</t>
+    <t xml:space="preserve">Employee_ID</t>
   </si>
   <si>
     <t xml:space="preserve">int</t>
@@ -61,6 +64,15 @@
     <t xml:space="preserve">Age</t>
   </si>
   <si>
+    <t xml:space="preserve">Cambiar los valores que estan con letras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age_Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Añadir columna</t>
+  </si>
+  <si>
     <t xml:space="preserve">Attrition</t>
   </si>
   <si>
@@ -73,18 +85,30 @@
     <t xml:space="preserve">BusinessTravel</t>
   </si>
   <si>
+    <t xml:space="preserve">Business_Travel</t>
+  </si>
+  <si>
     <t xml:space="preserve">object</t>
   </si>
   <si>
     <t xml:space="preserve">[nan, 'travel_rarely', 'travel_frequently', 'non-travel']</t>
   </si>
   <si>
+    <t xml:space="preserve">Eliminar NaN ??</t>
+  </si>
+  <si>
     <t xml:space="preserve">DailyRate</t>
   </si>
   <si>
+    <t xml:space="preserve">Daily_Rate</t>
+  </si>
+  <si>
     <t xml:space="preserve">float</t>
   </si>
   <si>
+    <t xml:space="preserve">Eliminar $ y cambiar ',' por '.'. Eliminar valores NaN?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Department</t>
   </si>
   <si>
@@ -94,9 +118,15 @@
     <t xml:space="preserve">DistanceFromHome</t>
   </si>
   <si>
+    <t xml:space="preserve">Distance_From_Home</t>
+  </si>
+  <si>
     <t xml:space="preserve">int64</t>
   </si>
   <si>
+    <t xml:space="preserve">Asegurarnos que no hay valores negativos</t>
+  </si>
+  <si>
     <t xml:space="preserve">Education</t>
   </si>
   <si>
@@ -104,6 +134,9 @@
   </si>
   <si>
     <t xml:space="preserve">EducationField</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education_Field</t>
   </si>
   <si>
     <t xml:space="preserve">[nan, 'Life Sciences', 'Technical Degree', 'Medical', 'Other',
@@ -113,12 +146,27 @@
     <t xml:space="preserve">employeecount</t>
   </si>
   <si>
+    <t xml:space="preserve">Employee_Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Es necesaria esta columna?</t>
+  </si>
+  <si>
     <t xml:space="preserve">employeenumber</t>
   </si>
   <si>
+    <t xml:space="preserve">Employee_Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faltan valores. Identificar los números que faltan y utilizarlos para terminar de rellenar la columna</t>
+  </si>
+  <si>
     <t xml:space="preserve">EnvironmentSatisfaction</t>
   </si>
   <si>
+    <t xml:space="preserve">Environment_Satisfaction</t>
+  </si>
+  <si>
     <t xml:space="preserve">[1, 2, 3, 4]</t>
   </si>
   <si>
@@ -128,84 +176,219 @@
     <t xml:space="preserve">['H','M']</t>
   </si>
   <si>
+    <t xml:space="preserve">Cambiar a 'H' y 'M'</t>
+  </si>
+  <si>
     <t xml:space="preserve">HourlyRate</t>
   </si>
   <si>
+    <t xml:space="preserve">Hourly_Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambiar 'Not Available'</t>
+  </si>
+  <si>
     <t xml:space="preserve">JobInvolvement</t>
   </si>
   <si>
+    <t xml:space="preserve">Job_Involvement</t>
+  </si>
+  <si>
     <t xml:space="preserve">JobLevel</t>
   </si>
   <si>
+    <t xml:space="preserve">Job_Level</t>
+  </si>
+  <si>
     <t xml:space="preserve">JobRole</t>
   </si>
   <si>
+    <t xml:space="preserve">Job_Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambiar todo a capitalized</t>
+  </si>
+  <si>
     <t xml:space="preserve">JobSatisfaction</t>
   </si>
   <si>
+    <t xml:space="preserve">Job_Satisfaction</t>
+  </si>
+  <si>
     <t xml:space="preserve">MaritalStatus</t>
   </si>
   <si>
+    <t xml:space="preserve">Marital_Status</t>
+  </si>
+  <si>
     <t xml:space="preserve">['Married', 'Divorced', 'Single']</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Eliminar NaN?? Cambiar 'Marr</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ei</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">d' por 'Married'. Cambiar 'divorced' por 'Divorced'</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">MonthlyIncome</t>
   </si>
   <si>
+    <t xml:space="preserve">Monthly_Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar NaN, </t>
+  </si>
+  <si>
     <t xml:space="preserve">MonthlyRate</t>
   </si>
   <si>
+    <t xml:space="preserve">Monthly_Rate</t>
+  </si>
+  <si>
     <t xml:space="preserve">NUMCOMPANIESWORKED</t>
   </si>
   <si>
+    <t xml:space="preserve">Num_Companies_Worked</t>
+  </si>
+  <si>
     <t xml:space="preserve">Over18</t>
   </si>
   <si>
+    <t xml:space="preserve">Over_18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambiar NaN a False</t>
+  </si>
+  <si>
     <t xml:space="preserve">OverTime</t>
   </si>
   <si>
+    <t xml:space="preserve">Over_Time</t>
+  </si>
+  <si>
     <t xml:space="preserve">PercentSalaryHike</t>
   </si>
   <si>
+    <t xml:space="preserve">Percent_Salary_Hike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valor &lt;= 100</t>
+  </si>
+  <si>
     <t xml:space="preserve">PerformanceRating</t>
   </si>
   <si>
+    <t xml:space="preserve">Performance_Rating</t>
+  </si>
+  <si>
     <t xml:space="preserve">RelationshipSatisfaction</t>
   </si>
   <si>
+    <t xml:space="preserve">Relationship_Satisfaction</t>
+  </si>
+  <si>
     <t xml:space="preserve">StandardHours</t>
   </si>
   <si>
+    <t xml:space="preserve">Standard_Hours</t>
+  </si>
+  <si>
     <t xml:space="preserve">StockOptionLevel</t>
   </si>
   <si>
+    <t xml:space="preserve">Stock_Option_Level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[0, 1, 2, 3]</t>
+  </si>
+  <si>
     <t xml:space="preserve">TOTALWORKINGYEARS</t>
   </si>
   <si>
+    <t xml:space="preserve">Total_Working_Years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminar ',0'</t>
+  </si>
+  <si>
     <t xml:space="preserve">TrainingTimesLastYear</t>
   </si>
   <si>
+    <t xml:space="preserve">Training_Times_Last_Year</t>
+  </si>
+  <si>
     <t xml:space="preserve">WORKLIFEBALANCE</t>
   </si>
   <si>
+    <t xml:space="preserve">Work_Life_Balance</t>
+  </si>
+  <si>
     <t xml:space="preserve">YearsAtCompany</t>
   </si>
   <si>
+    <t xml:space="preserve">Years_At_Company</t>
+  </si>
+  <si>
     <t xml:space="preserve">YearsInCurrentRole</t>
   </si>
   <si>
+    <t xml:space="preserve">Years_In_Current_Role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asegurarnos que no es mayor que 'YearsAtCompany'</t>
+  </si>
+  <si>
     <t xml:space="preserve">YearsSinceLastPromotion</t>
   </si>
   <si>
+    <t xml:space="preserve">Years_Since_Last_Promotion</t>
+  </si>
+  <si>
     <t xml:space="preserve">YEARSWITHCURRMANAGER</t>
   </si>
   <si>
+    <t xml:space="preserve">Years_With_Curr_Manager</t>
+  </si>
+  <si>
     <t xml:space="preserve">SameAsMonthlyIncome</t>
   </si>
   <si>
+    <t xml:space="preserve">ELIMINAR. Asegurarnos que todos los datos son iguales</t>
+  </si>
+  <si>
     <t xml:space="preserve">DateBirth</t>
   </si>
   <si>
+    <t xml:space="preserve">Date_Birth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asegurarnos que los datos coinciden con 'Over18'</t>
+  </si>
+  <si>
     <t xml:space="preserve">Salary</t>
   </si>
   <si>
@@ -215,10 +398,22 @@
     <t xml:space="preserve">RoleDepartament</t>
   </si>
   <si>
+    <t xml:space="preserve">ELIMINAR. Asegurarnos que todos los datos son iguales que 'Department' y 'JobRole'</t>
+  </si>
+  <si>
     <t xml:space="preserve">NUMBERCHILDREN</t>
   </si>
   <si>
+    <t xml:space="preserve">Number_Children</t>
+  </si>
+  <si>
     <t xml:space="preserve">RemoteWork</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remote_Work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambiar 'Yes','1', por True y '0' por False</t>
   </si>
 </sst>
 </file>
@@ -228,7 +423,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -257,8 +452,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,6 +475,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF99"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -312,7 +518,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -345,20 +551,36 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -374,6 +596,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF66FF99"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -382,34 +664,37 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I40" activeCellId="0" sqref="I40"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="I2" activeCellId="0" sqref="I:I"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="53.15"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="5" style="2" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="40.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="44.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="7.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="53.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="6" style="2" width="7.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="34.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="44.01"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -418,333 +703,631 @@
       <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="7" t="s">
+    </row>
+    <row r="4" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="9"/>
+      <c r="C4" s="9" t="s">
         <v>15</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="J4" s="8" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>18</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="7" t="s">
         <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="0" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>31</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>33</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>35</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="0" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>11</v>
+        <v>40</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>9</v>
+        <v>49</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>52</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>24</v>
+        <v>55</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>17</v>
+        <v>57</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>24</v>
+        <v>59</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>41</v>
+        <v>62</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>68</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>71</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>73</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>75</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>78</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
-        <v>48</v>
+        <v>80</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
-        <v>49</v>
+        <v>83</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
-        <v>50</v>
+        <v>85</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
-        <v>51</v>
+        <v>87</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="s">
-        <v>52</v>
+        <v>89</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="1" t="s">
-        <v>53</v>
+        <v>92</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="1" t="s">
-        <v>54</v>
+        <v>95</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="1" t="s">
-        <v>55</v>
+        <v>97</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="1" t="s">
-        <v>56</v>
+        <v>99</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="1" t="s">
-        <v>57</v>
+        <v>101</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="s">
-        <v>58</v>
+        <v>104</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="9"/>
-      <c r="B40" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="1" t="s">
-        <v>64</v>
+        <v>106</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" s="15"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="J39" s="14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="14"/>
+      <c r="B41" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="J42" s="14" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="s">
-        <v>65</v>
+        <v>117</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/Fase3_1_Nuria.xlsx
+++ b/Fase3_1_Nuria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34679\OneDrive\Documentos\ADALAB\Modulo3\Repos\project-da-promo-H-module-3-team-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42999C3C-2B73-4002-A9EA-965F23B0D8D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9B71FF-3355-4052-9C92-DED6C9450919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="126">
   <si>
     <t>NOMBRE COLUMNA ORIGINAL</t>
   </si>
@@ -149,9 +149,6 @@
   </si>
   <si>
     <t>Employee_Count</t>
-  </si>
-  <si>
-    <t>Es necesaria esta columna?</t>
   </si>
   <si>
     <t>employeenumber</t>
@@ -316,9 +313,6 @@
     <t>Stock_Option_Level</t>
   </si>
   <si>
-    <t>[0, 1, 2, 3]</t>
-  </si>
-  <si>
     <t>TOTALWORKINGYEARS</t>
   </si>
   <si>
@@ -424,20 +418,26 @@
     <t xml:space="preserve">Eliminar NaN, // En que se diferencia con monthly rate? </t>
   </si>
   <si>
-    <t>Cambiar 'Not Available' / Es necesaria esta columna? Tenemos monthly_Rate</t>
-  </si>
-  <si>
     <t>Cambiar NaN a False // Es necesaria esta columna o son todxs nulos y &gt;18?</t>
   </si>
   <si>
     <t>enviromentsatisfaction/jobsatisfaction/ relationshipSatisfaction --&gt; Son todas diferentes e importantes?</t>
+  </si>
+  <si>
+    <t>Cambiar 'Not Available' /</t>
+  </si>
+  <si>
+    <t>[0, 1, 2, 3] cambiar a [1,2,3,4]</t>
+  </si>
+  <si>
+    <t>[1, 2, 3, 4] añadir 5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -463,8 +463,21 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -501,6 +514,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -514,7 +539,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -523,7 +548,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -553,6 +577,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -938,8 +970,8 @@
   <dimension ref="B1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B36" sqref="B36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -983,19 +1015,25 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
+    <row r="2" spans="2:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="21" t="s">
         <v>12</v>
+      </c>
+      <c r="J2" s="23" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
@@ -1005,24 +1043,24 @@
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
+    <row r="4" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="J4" s="7" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="J4" s="6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1033,10 +1071,10 @@
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1050,11 +1088,11 @@
       <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -1064,11 +1102,11 @@
       <c r="C7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -1081,7 +1119,7 @@
       <c r="D8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="J8" t="s">
@@ -1126,36 +1164,39 @@
       <c r="D11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="9" t="s">
         <v>38</v>
       </c>
       <c r="J11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="2:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="J12" t="s">
-        <v>41</v>
+      <c r="D12" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="J12" s="24" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -1165,48 +1206,48 @@
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="6" t="s">
+      <c r="J15" t="s">
         <v>48</v>
       </c>
-      <c r="J15" t="s">
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
+      <c r="C16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J16" t="s">
@@ -1215,24 +1256,24 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>46</v>
+      <c r="E17" s="15" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>32</v>
@@ -1243,209 +1284,209 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="D20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>46</v>
+      <c r="E20" s="15" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J21" t="s">
         <v>63</v>
-      </c>
-      <c r="J21" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="D23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="17" t="s">
+      <c r="C25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>19</v>
       </c>
       <c r="J25" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J26" s="11" t="s">
-        <v>73</v>
+      <c r="J26" s="10" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E28" s="6" t="s">
+      <c r="D28" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>82</v>
-      </c>
       <c r="D29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="D31" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>87</v>
+      <c r="E31" s="15" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J32" t="s">
         <v>88</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J32" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>32</v>
@@ -1453,24 +1494,24 @@
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E34" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>32</v>
@@ -1478,140 +1519,140 @@
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J36" t="s">
         <v>97</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J36" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C39" s="12"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="J39" s="11" t="s">
         <v>103</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J38" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="J39" s="12" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" t="s">
         <v>106</v>
       </c>
-      <c r="C40" s="1" t="s">
+    </row>
+    <row r="41" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="C41" s="12"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="J41" s="11" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="41" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="13" t="s">
+    <row r="42" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="13"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="J41" s="12" t="s">
+      <c r="C42" s="12"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="J42" s="11" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="13"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="J42" s="12" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D43" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" t="s">
         <v>115</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J44" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="19"/>
-      <c r="G48" s="19"/>
-      <c r="H48" s="19"/>
+    </row>
+    <row r="48" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/Fase3_1_Nuria.xlsx
+++ b/Fase3_1_Nuria.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34679\OneDrive\Documentos\ADALAB\Modulo3\Repos\project-da-promo-H-module-3-team-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC9B71FF-3355-4052-9C92-DED6C9450919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B84D499-0E5B-49FF-A452-41405500E2EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="127">
   <si>
     <t>NOMBRE COLUMNA ORIGINAL</t>
   </si>
@@ -364,9 +364,6 @@
     <t>SameAsMonthlyIncome</t>
   </si>
   <si>
-    <t>ELIMINAR. Asegurarnos que todos los datos son iguales</t>
-  </si>
-  <si>
     <t>DateBirth</t>
   </si>
   <si>
@@ -385,9 +382,6 @@
     <t>RoleDepartament</t>
   </si>
   <si>
-    <t>ELIMINAR. Asegurarnos que todos los datos son iguales que 'Department' y 'JobRole'</t>
-  </si>
-  <si>
     <t>NUMBERCHILDREN</t>
   </si>
   <si>
@@ -418,9 +412,6 @@
     <t xml:space="preserve">Eliminar NaN, // En que se diferencia con monthly rate? </t>
   </si>
   <si>
-    <t>Cambiar NaN a False // Es necesaria esta columna o son todxs nulos y &gt;18?</t>
-  </si>
-  <si>
     <t>enviromentsatisfaction/jobsatisfaction/ relationshipSatisfaction --&gt; Son todas diferentes e importantes?</t>
   </si>
   <si>
@@ -431,6 +422,36 @@
   </si>
   <si>
     <t>[1, 2, 3, 4] añadir 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELIMINAR. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambiar NaN a True </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ELIMINAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <t>son todos nan</t>
   </si>
 </sst>
 </file>
@@ -539,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -585,6 +606,7 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -970,20 +992,21 @@
   <dimension ref="B1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.88671875" customWidth="1"/>
-    <col min="2" max="2" width="26" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.88671875" style="2" customWidth="1"/>
     <col min="5" max="5" width="53.109375" style="2" customWidth="1"/>
     <col min="6" max="8" width="7.33203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="34.88671875" customWidth="1"/>
     <col min="10" max="10" width="44" customWidth="1"/>
+    <col min="11" max="11" width="27.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1033,7 +1056,7 @@
         <v>12</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
@@ -1092,7 +1115,7 @@
         <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -1106,7 +1129,7 @@
         <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -1186,7 +1209,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
       <c r="J12" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -1206,7 +1229,7 @@
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -1251,7 +1274,7 @@
         <v>10</v>
       </c>
       <c r="J16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -1265,7 +1288,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -1307,7 +1330,7 @@
         <v>32</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -1338,7 +1361,7 @@
         <v>27</v>
       </c>
       <c r="J22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -1352,7 +1375,7 @@
         <v>32</v>
       </c>
       <c r="J23" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -1380,7 +1403,7 @@
         <v>19</v>
       </c>
       <c r="J25" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -1464,7 +1487,7 @@
         <v>32</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
@@ -1569,27 +1592,27 @@
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
-      <c r="J39" s="11" t="s">
-        <v>103</v>
+      <c r="J39" s="25" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J40" t="s">
         <v>105</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="J40" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="41" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="5"/>
@@ -1598,12 +1621,12 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="J41" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="5"/>
@@ -1612,26 +1635,29 @@
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="J42" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B43" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>112</v>
-      </c>
       <c r="D43" s="5" t="s">
         <v>32</v>
+      </c>
+      <c r="J43" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>18</v>
@@ -1640,12 +1666,12 @@
         <v>19</v>
       </c>
       <c r="J44" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C48" s="16"/>
       <c r="D48" s="18"/>

--- a/Fase3_1_Nuria.xlsx
+++ b/Fase3_1_Nuria.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34679\OneDrive\Documentos\ADALAB\Modulo3\Repos\project-da-promo-H-module-3-team-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C86DFA-2EF9-4FD1-B789-1700F2906691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B51982-2DC1-4A8D-9D2C-DFA0781FDE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11628" yWindow="0" windowWidth="11412" windowHeight="11892" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="128">
   <si>
     <t>NOMBRE COLUMNA ORIGINAL</t>
   </si>
@@ -346,9 +346,6 @@
     <t>Years_In_Current_Role</t>
   </si>
   <si>
-    <t>Asegurarnos que no es mayor que 'YearsAtCompany'</t>
-  </si>
-  <si>
     <t>YearsSinceLastPromotion</t>
   </si>
   <si>
@@ -368,9 +365,6 @@
   </si>
   <si>
     <t>Date_Birth</t>
-  </si>
-  <si>
-    <t>Asegurarnos que los datos coinciden con 'Over18'</t>
   </si>
   <si>
     <t>Salary</t>
@@ -452,6 +446,15 @@
   </si>
   <si>
     <t>son todos nan</t>
+  </si>
+  <si>
+    <t>1580 nulos, ¿qué hacemos con ellos? Asegurarnos que no es mayor que 'YearsAtCompany'</t>
+  </si>
+  <si>
+    <t>No es mayor que 'YearsAtCompany'</t>
+  </si>
+  <si>
+    <t>Los datos coinciden con 'Over18'</t>
   </si>
 </sst>
 </file>
@@ -991,9 +994,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="87" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1056,7 +1059,7 @@
         <v>12</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
@@ -1115,7 +1118,7 @@
         <v>23</v>
       </c>
       <c r="J6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
@@ -1129,7 +1132,7 @@
         <v>27</v>
       </c>
       <c r="J7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.25">
@@ -1209,7 +1212,7 @@
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
       <c r="J12" s="24" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -1229,7 +1232,7 @@
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -1274,7 +1277,7 @@
         <v>10</v>
       </c>
       <c r="J16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
@@ -1288,7 +1291,7 @@
         <v>32</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -1330,7 +1333,7 @@
         <v>32</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.25">
@@ -1361,7 +1364,7 @@
         <v>27</v>
       </c>
       <c r="J22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.25">
@@ -1375,7 +1378,7 @@
         <v>32</v>
       </c>
       <c r="J23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
@@ -1403,7 +1406,7 @@
         <v>19</v>
       </c>
       <c r="J25" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -1487,7 +1490,7 @@
         <v>32</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.25">
@@ -1551,40 +1554,40 @@
         <v>32</v>
       </c>
       <c r="J36" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="D37" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J37" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="D38" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J38" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="5"/>
@@ -1593,26 +1596,26 @@
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
       <c r="J39" s="25" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="D40" s="2" t="s">
         <v>32</v>
       </c>
       <c r="J40" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="5"/>
@@ -1621,12 +1624,12 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
       <c r="J41" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="2:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="5"/>
@@ -1635,29 +1638,29 @@
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
       <c r="J42" s="11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J43" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>18</v>
@@ -1666,12 +1669,12 @@
         <v>19</v>
       </c>
       <c r="J44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="2:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C48" s="16"/>
       <c r="D48" s="18"/>
